--- a/va_facility_data_2025-02-20/Ironwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ironwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Ironwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Ironwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8578dd0e60414f739967df2040a62d3a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R842fc62ac0e4496ba83f6e83bf605fb3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4f9b9a51c39d4f7c92814af21cd44298"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5099da63a96240f48b091dad31a83075"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R79ab212ff63445faa7d6b515bb36f4db"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb9a60929391440f6818e80055888f209"/>
   </x:sheets>
 </x:workbook>
 </file>
